--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1224511.856106458</v>
+        <v>1269404.659118123</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6643280.471408685</v>
+        <v>6643280.471408686</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10160336.16862626</v>
+        <v>10160336.16862628</v>
       </c>
     </row>
     <row r="9">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>24.05642446854165</v>
+      </c>
+      <c r="G11" t="n">
         <v>223.5533230558146</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>20.31336441140823</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5924025361532</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.40293372813255</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.7168039184781</v>
       </c>
       <c r="U12" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>183.1330574988028</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>102.1159135383039</v>
       </c>
     </row>
     <row r="13">
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>8.693616733572085</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.5533230558146</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>196.9057669475615</v>
+        <v>188.2121502139894</v>
       </c>
       <c r="V13" t="n">
         <v>223.5533230558146</v>
@@ -1593,7 +1593,7 @@
         <v>223.5533230558146</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>196.9057669475614</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>223.5533230558147</v>
       </c>
-      <c r="C14" t="n">
+      <c r="X14" t="n">
         <v>223.5533230558147</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>196.9057669475615</v>
       </c>
       <c r="Y14" t="n">
         <v>223.5533230558147</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.6154244331016</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>223.5533230558147</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>193.7941579426344</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1861,46 +1861,46 @@
         <v>223.5533230558147</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>20.3133644114082</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>176.5924025361533</v>
+      </c>
+      <c r="U17" t="n">
         <v>223.5533230558147</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>196.9057669475615</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>88.46838842054466</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>101.5778486352903</v>
       </c>
       <c r="I18" t="n">
-        <v>51.40293372813254</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>195.7168039184781</v>
       </c>
       <c r="U18" t="n">
-        <v>127.4314841479707</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>75.91314100615092</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>127.628788365327</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.0021237704049</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>24.05642446854169</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>223.5533230558147</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>223.5533230558147</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>15.69427190136456</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>51.40293372813254</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T21" t="n">
         <v>195.7168039184781</v>
       </c>
       <c r="U21" t="n">
-        <v>223.5533230558147</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93315533962425</v>
       </c>
     </row>
     <row r="22">
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>23.70994918954062</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>156.4812334594142</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>157.0207059293786</v>
       </c>
       <c r="G23" t="n">
-        <v>105.4530913829666</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>130.9630535135678</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>31.64333672726874</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S24" t="n">
         <v>151.1859334239523</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>99.58039253744259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>162.0936933994394</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>413.2402814861658</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>67.13861149596133</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>245.9757946670508</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.6433367272689</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S27" t="n">
         <v>151.1859334239523</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.0658325864478</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>124.3339915033705</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>134.8364488958977</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>109.709379155621</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>186.7975922726227</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>31.6433367272689</v>
+        <v>31.64333672726874</v>
       </c>
       <c r="S30" t="n">
         <v>151.1859334239523</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>103.1954390655493</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>136.7484290372825</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>5.027308496635796</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2402814861658</v>
+        <v>330.2191334741657</v>
       </c>
       <c r="H32" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>3.989618774169239</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.8466546669231</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2685668052903</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>318.3526743090856</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.0674482973184</v>
+        <v>73.86731421096007</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>26.47636331893861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>42.35231508373631</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.2400059020503</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>145.9522969782624</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>92.782598742217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.7257478179059</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>327.0402866811423</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.2402814861658</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>192.9719116806959</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>21.10136009302315</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3596,10 +3596,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.2400059020503</v>
+        <v>78.70723241203942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>101.5778486352903</v>
       </c>
       <c r="I39" t="n">
         <v>51.40293372813254</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.1859334239523</v>
       </c>
       <c r="T39" t="n">
         <v>195.7168039184781</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.72205077667468</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U40" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>203.302703063739</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>339.9869985987375</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>318.3526743090856</v>
+        <v>212.1296852712086</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3827,13 +3827,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>129.3866091042246</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>101.5778486352903</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.6433367272689</v>
       </c>
       <c r="S42" t="n">
         <v>151.1859334239523</v>
@@ -3878,16 +3878,16 @@
         <v>225.8687826558985</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>22.73695181223735</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>29.53981361682101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S43" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.9926895842344</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.8410971521532</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H44" t="n">
-        <v>186.8083213641287</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.3133644114082</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>108.5490316104722</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.2400059020503</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>101.5778486352903</v>
+        <v>23.00034398784201</v>
       </c>
       <c r="I45" t="n">
-        <v>51.40293372813254</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>225.3990607049092</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>59.90356114831785</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S46" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2685668052903</v>
+        <v>192.0153240764566</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>267.9951219296736</v>
+      </c>
+      <c r="C11" t="n">
+        <v>267.9951219296736</v>
+      </c>
+      <c r="D11" t="n">
+        <v>267.9951219296736</v>
+      </c>
+      <c r="E11" t="n">
+        <v>267.9951219296736</v>
+      </c>
+      <c r="F11" t="n">
         <v>243.695703274581</v>
-      </c>
-      <c r="C11" t="n">
-        <v>243.695703274581</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17.88426584446517</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17.88426584446517</v>
-      </c>
-      <c r="F11" t="n">
-        <v>17.88426584446517</v>
       </c>
       <c r="G11" t="n">
         <v>17.88426584446517</v>
@@ -5044,19 +5044,19 @@
         <v>17.88426584446517</v>
       </c>
       <c r="K11" t="n">
-        <v>239.2020556697217</v>
+        <v>59.72393299398526</v>
       </c>
       <c r="L11" t="n">
-        <v>328.009624343088</v>
+        <v>148.5315016673516</v>
       </c>
       <c r="M11" t="n">
-        <v>458.4945933228723</v>
+        <v>334.9371149740604</v>
       </c>
       <c r="N11" t="n">
-        <v>595.7047538974174</v>
+        <v>556.2549047993168</v>
       </c>
       <c r="O11" t="n">
-        <v>711.9331564584351</v>
+        <v>672.4833073603345</v>
       </c>
       <c r="P11" t="n">
         <v>893.8010971855909</v>
@@ -5068,25 +5068,25 @@
         <v>873.6947423127452</v>
       </c>
       <c r="S11" t="n">
-        <v>873.6947423127452</v>
+        <v>710.0363051146564</v>
       </c>
       <c r="T11" t="n">
-        <v>873.6947423127452</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="U11" t="n">
-        <v>695.3185781348127</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="V11" t="n">
-        <v>469.5071407046968</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="W11" t="n">
-        <v>469.5071407046968</v>
+        <v>493.8065593597894</v>
       </c>
       <c r="X11" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.695703274581</v>
+        <v>267.9951219296736</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.88426584446517</v>
+        <v>393.1938600677854</v>
       </c>
       <c r="C12" t="n">
-        <v>17.88426584446517</v>
+        <v>218.7408307866584</v>
       </c>
       <c r="D12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="E12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="F12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="G12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="H12" t="n">
-        <v>17.88426584446517</v>
+        <v>69.80642112540714</v>
       </c>
       <c r="I12" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J12" t="n">
-        <v>120.3601786590473</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K12" t="n">
-        <v>241.1525965922639</v>
+        <v>57.83218144019041</v>
       </c>
       <c r="L12" t="n">
-        <v>341.1900401448535</v>
+        <v>157.86962499278</v>
       </c>
       <c r="M12" t="n">
-        <v>477.2858864816109</v>
+        <v>293.9654713295374</v>
       </c>
       <c r="N12" t="n">
-        <v>698.6036763068673</v>
+        <v>448.0720146687464</v>
       </c>
       <c r="O12" t="n">
-        <v>817.3612611065234</v>
+        <v>566.8295994684025</v>
       </c>
       <c r="P12" t="n">
-        <v>893.3416265185888</v>
+        <v>685.3651116600981</v>
       </c>
       <c r="Q12" t="n">
         <v>894.2132922232586</v>
@@ -5150,22 +5150,22 @@
         <v>862.2503258320778</v>
       </c>
       <c r="T12" t="n">
-        <v>862.2503258320778</v>
+        <v>664.5565845002817</v>
       </c>
       <c r="U12" t="n">
-        <v>636.438888401962</v>
+        <v>664.5565845002817</v>
       </c>
       <c r="V12" t="n">
-        <v>410.6274509718462</v>
+        <v>664.5565845002817</v>
       </c>
       <c r="W12" t="n">
-        <v>225.6445646094191</v>
+        <v>664.5565845002817</v>
       </c>
       <c r="X12" t="n">
-        <v>225.6445646094191</v>
+        <v>664.5565845002817</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.88426584446517</v>
+        <v>561.4091970878535</v>
       </c>
     </row>
     <row r="13">
@@ -5220,25 +5220,25 @@
         <v>894.2132922232586</v>
       </c>
       <c r="Q13" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="R13" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="S13" t="n">
-        <v>894.2132922232586</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="T13" t="n">
-        <v>668.4018547931428</v>
+        <v>885.4318611792464</v>
       </c>
       <c r="U13" t="n">
+        <v>695.3185781348127</v>
+      </c>
+      <c r="V13" t="n">
         <v>469.5071407046968</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>243.695703274581</v>
-      </c>
-      <c r="W13" t="n">
-        <v>17.88426584446517</v>
       </c>
       <c r="X13" t="n">
         <v>17.88426584446517</v>
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>243.695703274581</v>
+        <v>216.7789799329111</v>
       </c>
       <c r="C14" t="n">
-        <v>17.88426584446517</v>
+        <v>216.7789799329111</v>
       </c>
       <c r="D14" t="n">
         <v>17.88426584446517</v>
@@ -5281,22 +5281,22 @@
         <v>179.3523629982428</v>
       </c>
       <c r="K14" t="n">
-        <v>356.3727447091338</v>
+        <v>221.192030147763</v>
       </c>
       <c r="L14" t="n">
-        <v>445.1803133825003</v>
+        <v>309.9995988211294</v>
       </c>
       <c r="M14" t="n">
-        <v>575.6652823622846</v>
+        <v>440.4845678009138</v>
       </c>
       <c r="N14" t="n">
-        <v>712.8754429368299</v>
+        <v>577.694728375459</v>
       </c>
       <c r="O14" t="n">
-        <v>829.1038454978476</v>
+        <v>693.9231309364767</v>
       </c>
       <c r="P14" t="n">
-        <v>893.8010971855911</v>
+        <v>758.6203826242202</v>
       </c>
       <c r="Q14" t="n">
         <v>894.2132922232587</v>
@@ -5317,13 +5317,13 @@
         <v>894.2132922232587</v>
       </c>
       <c r="W14" t="n">
-        <v>894.2132922232587</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="X14" t="n">
-        <v>695.3185781348127</v>
+        <v>442.5904173630269</v>
       </c>
       <c r="Y14" t="n">
-        <v>469.5071407046969</v>
+        <v>216.7789799329111</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.6415560281889</v>
+        <v>304.434843083545</v>
       </c>
       <c r="C15" t="n">
-        <v>460.6415560281889</v>
+        <v>304.434843083545</v>
       </c>
       <c r="D15" t="n">
-        <v>460.6415560281889</v>
+        <v>155.5004334222938</v>
       </c>
       <c r="E15" t="n">
-        <v>301.4041010227334</v>
+        <v>155.5004334222938</v>
       </c>
       <c r="F15" t="n">
-        <v>154.8695430496183</v>
+        <v>155.5004334222938</v>
       </c>
       <c r="G15" t="n">
         <v>17.88426584446517</v>
@@ -5357,22 +5357,22 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J15" t="n">
-        <v>17.88426584446517</v>
+        <v>60.43941262409547</v>
       </c>
       <c r="K15" t="n">
-        <v>57.83218144019044</v>
+        <v>100.3873282198207</v>
       </c>
       <c r="L15" t="n">
-        <v>157.8696249927801</v>
+        <v>200.4247717724104</v>
       </c>
       <c r="M15" t="n">
-        <v>293.9654713295375</v>
+        <v>336.5206181091678</v>
       </c>
       <c r="N15" t="n">
-        <v>448.0720146687465</v>
+        <v>490.6271614483768</v>
       </c>
       <c r="O15" t="n">
-        <v>566.8295994684026</v>
+        <v>609.3847462480329</v>
       </c>
       <c r="P15" t="n">
         <v>685.3651116600983</v>
@@ -5393,16 +5393,16 @@
         <v>668.4018547931428</v>
       </c>
       <c r="V15" t="n">
-        <v>668.4018547931428</v>
+        <v>472.6501801036131</v>
       </c>
       <c r="W15" t="n">
-        <v>668.4018547931428</v>
+        <v>472.6501801036131</v>
       </c>
       <c r="X15" t="n">
-        <v>668.4018547931428</v>
+        <v>472.6501801036131</v>
       </c>
       <c r="Y15" t="n">
-        <v>460.6415560281889</v>
+        <v>472.6501801036131</v>
       </c>
     </row>
     <row r="16">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="C17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="D17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="E17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="F17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
       <c r="G17" t="n">
-        <v>243.695703274581</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H17" t="n">
         <v>17.88426584446517</v>
@@ -5521,13 +5521,13 @@
         <v>59.72393299398531</v>
       </c>
       <c r="L17" t="n">
-        <v>281.0417228192418</v>
+        <v>270.2398632863169</v>
       </c>
       <c r="M17" t="n">
-        <v>411.5266917990262</v>
+        <v>491.5576531115734</v>
       </c>
       <c r="N17" t="n">
-        <v>607.7860556725911</v>
+        <v>712.8754429368299</v>
       </c>
       <c r="O17" t="n">
         <v>829.1038454978476</v>
@@ -5539,28 +5539,28 @@
         <v>894.2132922232587</v>
       </c>
       <c r="R17" t="n">
-        <v>894.2132922232587</v>
+        <v>873.6947423127453</v>
       </c>
       <c r="S17" t="n">
-        <v>894.2132922232587</v>
+        <v>873.6947423127453</v>
       </c>
       <c r="T17" t="n">
-        <v>894.2132922232587</v>
+        <v>695.3185781348127</v>
       </c>
       <c r="U17" t="n">
-        <v>695.3185781348127</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="V17" t="n">
-        <v>695.3185781348127</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="W17" t="n">
-        <v>695.3185781348127</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="X17" t="n">
-        <v>695.3185781348127</v>
+        <v>469.5071407046969</v>
       </c>
       <c r="Y17" t="n">
-        <v>469.5071407046969</v>
+        <v>243.695703274581</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>310.02647621363</v>
+        <v>664.5565845002819</v>
       </c>
       <c r="C18" t="n">
-        <v>310.02647621363</v>
+        <v>575.1945759946813</v>
       </c>
       <c r="D18" t="n">
-        <v>310.02647621363</v>
+        <v>426.26016633343</v>
       </c>
       <c r="E18" t="n">
-        <v>310.02647621363</v>
+        <v>267.0227113279745</v>
       </c>
       <c r="F18" t="n">
-        <v>310.02647621363</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="G18" t="n">
-        <v>172.4103086358014</v>
+        <v>120.4881533548594</v>
       </c>
       <c r="H18" t="n">
-        <v>69.80642112540713</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I18" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J18" t="n">
-        <v>120.3601786590473</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K18" t="n">
-        <v>160.3080942547726</v>
+        <v>239.2020556697217</v>
       </c>
       <c r="L18" t="n">
-        <v>260.3455378073622</v>
+        <v>408.4012866309009</v>
       </c>
       <c r="M18" t="n">
-        <v>441.9369279420579</v>
+        <v>544.4971329676583</v>
       </c>
       <c r="N18" t="n">
-        <v>596.0434712812669</v>
+        <v>698.6036763068673</v>
       </c>
       <c r="O18" t="n">
         <v>817.3612611065234</v>
@@ -5627,19 +5627,19 @@
         <v>664.5565845002819</v>
       </c>
       <c r="U18" t="n">
-        <v>535.8379136437459</v>
+        <v>664.5565845002819</v>
       </c>
       <c r="V18" t="n">
-        <v>535.8379136437459</v>
+        <v>664.5565845002819</v>
       </c>
       <c r="W18" t="n">
-        <v>310.02647621363</v>
+        <v>664.5565845002819</v>
       </c>
       <c r="X18" t="n">
-        <v>310.02647621363</v>
+        <v>664.5565845002819</v>
       </c>
       <c r="Y18" t="n">
-        <v>310.02647621363</v>
+        <v>664.5565845002819</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668.4018547931428</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="C19" t="n">
-        <v>668.4018547931428</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="D19" t="n">
-        <v>518.285215380807</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="E19" t="n">
-        <v>370.3721217984139</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="F19" t="n">
-        <v>223.4821743005035</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8022338902501</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8022338902501</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I19" t="n">
         <v>17.88426584446517</v>
@@ -5697,28 +5697,28 @@
         <v>894.2132922232587</v>
       </c>
       <c r="R19" t="n">
-        <v>894.2132922232587</v>
+        <v>757.1472029934866</v>
       </c>
       <c r="S19" t="n">
-        <v>894.2132922232587</v>
+        <v>547.1534525607792</v>
       </c>
       <c r="T19" t="n">
-        <v>894.2132922232587</v>
+        <v>390.5856507724914</v>
       </c>
       <c r="U19" t="n">
-        <v>894.2132922232587</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="V19" t="n">
-        <v>894.2132922232587</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="W19" t="n">
-        <v>894.2132922232587</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="X19" t="n">
-        <v>668.4018547931428</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="Y19" t="n">
-        <v>668.4018547931428</v>
+        <v>164.7742133423755</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.18368449955778</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="C20" t="n">
-        <v>42.18368449955778</v>
+        <v>267.9951219296736</v>
       </c>
       <c r="D20" t="n">
         <v>42.18368449955778</v>
       </c>
       <c r="E20" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955778</v>
       </c>
       <c r="F20" t="n">
-        <v>17.88426584446517</v>
+        <v>42.18368449955778</v>
       </c>
       <c r="G20" t="n">
         <v>17.88426584446517</v>
@@ -5752,25 +5752,25 @@
         <v>17.88426584446517</v>
       </c>
       <c r="J20" t="n">
-        <v>179.3523629982428</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="K20" t="n">
-        <v>221.192030147763</v>
+        <v>239.2020556697217</v>
       </c>
       <c r="L20" t="n">
-        <v>309.9995988211294</v>
+        <v>328.0096243430881</v>
       </c>
       <c r="M20" t="n">
-        <v>440.4845678009138</v>
+        <v>458.4945933228725</v>
       </c>
       <c r="N20" t="n">
-        <v>577.694728375459</v>
+        <v>595.7047538974177</v>
       </c>
       <c r="O20" t="n">
-        <v>693.9231309364767</v>
+        <v>711.9331564584354</v>
       </c>
       <c r="P20" t="n">
-        <v>758.6203826242202</v>
+        <v>893.8010971855911</v>
       </c>
       <c r="Q20" t="n">
         <v>894.2132922232587</v>
@@ -5788,16 +5788,16 @@
         <v>493.8065593597895</v>
       </c>
       <c r="V20" t="n">
+        <v>493.8065593597895</v>
+      </c>
+      <c r="W20" t="n">
+        <v>493.8065593597895</v>
+      </c>
+      <c r="X20" t="n">
+        <v>493.8065593597895</v>
+      </c>
+      <c r="Y20" t="n">
         <v>267.9951219296736</v>
-      </c>
-      <c r="W20" t="n">
-        <v>267.9951219296736</v>
-      </c>
-      <c r="X20" t="n">
-        <v>42.18368449955778</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>42.18368449955778</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>244.8966760312309</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="C21" t="n">
-        <v>229.0438761308626</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="D21" t="n">
-        <v>229.0438761308626</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="E21" t="n">
-        <v>69.80642112540713</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="F21" t="n">
-        <v>69.80642112540713</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G21" t="n">
-        <v>69.80642112540713</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="H21" t="n">
-        <v>69.80642112540713</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="I21" t="n">
         <v>17.88426584446517</v>
       </c>
       <c r="J21" t="n">
-        <v>17.88426584446517</v>
+        <v>120.3601786590473</v>
       </c>
       <c r="K21" t="n">
-        <v>57.83218144019044</v>
+        <v>160.3080942547726</v>
       </c>
       <c r="L21" t="n">
-        <v>279.1499712654469</v>
+        <v>260.3455378073622</v>
       </c>
       <c r="M21" t="n">
-        <v>500.4677610907034</v>
+        <v>396.4413841441196</v>
       </c>
       <c r="N21" t="n">
-        <v>654.5743044299124</v>
+        <v>550.5479274833286</v>
       </c>
       <c r="O21" t="n">
-        <v>817.3612611065234</v>
+        <v>669.3055122829848</v>
       </c>
       <c r="P21" t="n">
-        <v>893.3416265185888</v>
+        <v>745.2858776950501</v>
       </c>
       <c r="Q21" t="n">
         <v>894.2132922232587</v>
       </c>
       <c r="R21" t="n">
-        <v>894.2132922232587</v>
+        <v>862.250325832078</v>
       </c>
       <c r="S21" t="n">
-        <v>894.2132922232587</v>
+        <v>709.5372617674798</v>
       </c>
       <c r="T21" t="n">
-        <v>696.5195508914626</v>
+        <v>511.8435204356837</v>
       </c>
       <c r="U21" t="n">
-        <v>470.7081134613467</v>
+        <v>511.8435204356837</v>
       </c>
       <c r="V21" t="n">
-        <v>470.7081134613467</v>
+        <v>511.8435204356837</v>
       </c>
       <c r="W21" t="n">
-        <v>244.8966760312309</v>
+        <v>286.0320830055678</v>
       </c>
       <c r="X21" t="n">
-        <v>244.8966760312309</v>
+        <v>286.0320830055678</v>
       </c>
       <c r="Y21" t="n">
-        <v>244.8966760312309</v>
+        <v>186.0996028645332</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>491.7722482494887</v>
+        <v>486.753389962903</v>
       </c>
       <c r="C22" t="n">
-        <v>322.8360653215818</v>
+        <v>462.8039463371044</v>
       </c>
       <c r="D22" t="n">
-        <v>322.8360653215818</v>
+        <v>312.6873069247687</v>
       </c>
       <c r="E22" t="n">
-        <v>322.8360653215818</v>
+        <v>164.7742133423755</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9461178236715</v>
+        <v>17.88426584446517</v>
       </c>
       <c r="G22" t="n">
         <v>17.88426584446517</v>
@@ -5946,16 +5946,16 @@
         <v>894.2132922232586</v>
       </c>
       <c r="V22" t="n">
-        <v>894.2132922232586</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="W22" t="n">
-        <v>894.2132922232586</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="X22" t="n">
-        <v>894.2132922232586</v>
+        <v>668.4018547931428</v>
       </c>
       <c r="Y22" t="n">
-        <v>673.4207130797284</v>
+        <v>668.4018547931428</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.764807557246</v>
+        <v>938.999036571144</v>
       </c>
       <c r="C23" t="n">
-        <v>971.8022906168346</v>
+        <v>570.0365196307323</v>
       </c>
       <c r="D23" t="n">
-        <v>613.5365920100842</v>
+        <v>211.7708210239818</v>
       </c>
       <c r="E23" t="n">
-        <v>613.5365920100842</v>
+        <v>211.7708210239818</v>
       </c>
       <c r="F23" t="n">
-        <v>613.5365920100842</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="G23" t="n">
-        <v>507.0183178858755</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H23" t="n">
-        <v>185.4499599979102</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I23" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J23" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K23" t="n">
-        <v>577.3757701066936</v>
+        <v>415.907672952916</v>
       </c>
       <c r="L23" t="n">
-        <v>666.18333878006</v>
+        <v>918.1998440312284</v>
       </c>
       <c r="M23" t="n">
-        <v>1241.686705917748</v>
+        <v>1493.703211168917</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.870321660158</v>
+        <v>2063.886826911326</v>
       </c>
       <c r="O23" t="n">
-        <v>2305.090903671294</v>
+        <v>2557.107408922462</v>
       </c>
       <c r="P23" t="n">
-        <v>2447.598332106165</v>
+        <v>2621.804660610206</v>
       </c>
       <c r="Q23" t="n">
         <v>2658.202367897139</v>
@@ -6016,25 +6016,25 @@
         <v>2658.202367897139</v>
       </c>
       <c r="S23" t="n">
-        <v>2494.54393069905</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T23" t="n">
-        <v>2278.314184944183</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="U23" t="n">
-        <v>2024.596350170931</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="V23" t="n">
-        <v>1693.53346282736</v>
+        <v>2441.972622142272</v>
       </c>
       <c r="W23" t="n">
-        <v>1340.764807557246</v>
+        <v>2089.203966872157</v>
       </c>
       <c r="X23" t="n">
-        <v>1340.764807557246</v>
+        <v>1715.738208611077</v>
       </c>
       <c r="Y23" t="n">
-        <v>1340.764807557246</v>
+        <v>1325.598876635266</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>974.4657096480563</v>
+        <v>974.4657096480555</v>
       </c>
       <c r="C24" t="n">
-        <v>800.0126803669293</v>
+        <v>800.0126803669285</v>
       </c>
       <c r="D24" t="n">
-        <v>651.0782707056781</v>
+        <v>651.0782707056774</v>
       </c>
       <c r="E24" t="n">
-        <v>491.8408157002226</v>
+        <v>491.8408157002218</v>
       </c>
       <c r="F24" t="n">
-        <v>345.3062577271076</v>
+        <v>345.3062577271069</v>
       </c>
       <c r="G24" t="n">
-        <v>207.690090149279</v>
+        <v>207.6900901492786</v>
       </c>
       <c r="H24" t="n">
         <v>105.0862026388847</v>
@@ -6068,25 +6068,25 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J24" t="n">
-        <v>53.16404735794277</v>
+        <v>155.6399601725249</v>
       </c>
       <c r="K24" t="n">
-        <v>93.11196295366804</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2813483566822</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M24" t="n">
-        <v>1157.425207805939</v>
+        <v>1521.721705262974</v>
       </c>
       <c r="N24" t="n">
-        <v>1786.080701745266</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O24" t="n">
-        <v>2266.072195826866</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P24" t="n">
-        <v>2657.330702192469</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q24" t="n">
         <v>2658.202367897139</v>
@@ -6095,22 +6095,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S24" t="n">
-        <v>2473.52633744136</v>
+        <v>2473.526337441359</v>
       </c>
       <c r="T24" t="n">
-        <v>2275.832596109564</v>
+        <v>2275.832596109563</v>
       </c>
       <c r="U24" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V24" t="n">
-        <v>1812.530202366813</v>
+        <v>1812.530202366812</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.292845638611</v>
+        <v>1558.29284563861</v>
       </c>
       <c r="X24" t="n">
-        <v>1350.441345433078</v>
+        <v>1350.441345433077</v>
       </c>
       <c r="Y24" t="n">
         <v>1142.681046668124</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="C25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="D25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="E25" t="n">
-        <v>200.0539948558531</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="F25" t="n">
-        <v>53.16404735794277</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G25" t="n">
         <v>53.16404735794277</v>
@@ -6174,25 +6174,25 @@
         <v>929.4930737367362</v>
       </c>
       <c r="S25" t="n">
-        <v>828.9068186484103</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T25" t="n">
-        <v>602.6515766441331</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U25" t="n">
-        <v>602.6515766441331</v>
+        <v>640.332905246544</v>
       </c>
       <c r="V25" t="n">
-        <v>347.9670884382463</v>
+        <v>385.6484170406571</v>
       </c>
       <c r="W25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="X25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="Y25" t="n">
-        <v>347.9670884382463</v>
+        <v>221.9174136068799</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1625.618329096147</v>
+        <v>2316.149203924524</v>
       </c>
       <c r="C26" t="n">
-        <v>1625.618329096147</v>
+        <v>1947.186686984112</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.352630489396</v>
+        <v>1588.920988377362</v>
       </c>
       <c r="E26" t="n">
-        <v>881.5643778911522</v>
+        <v>1203.132735779117</v>
       </c>
       <c r="F26" t="n">
-        <v>470.5784731015446</v>
+        <v>792.1468309895099</v>
       </c>
       <c r="G26" t="n">
-        <v>53.16404735794277</v>
+        <v>374.732405245908</v>
       </c>
       <c r="H26" t="n">
         <v>53.16404735794277</v>
@@ -6226,13 +6226,13 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J26" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K26" t="n">
-        <v>577.3757701066936</v>
+        <v>133.3124641124137</v>
       </c>
       <c r="L26" t="n">
-        <v>1079.667941185006</v>
+        <v>635.6046351907261</v>
       </c>
       <c r="M26" t="n">
         <v>1211.108002328415</v>
@@ -6256,22 +6256,22 @@
         <v>2637.683817986625</v>
       </c>
       <c r="T26" t="n">
-        <v>2637.683817986625</v>
+        <v>2569.867038697776</v>
       </c>
       <c r="U26" t="n">
-        <v>2637.683817986625</v>
+        <v>2316.149203924524</v>
       </c>
       <c r="V26" t="n">
-        <v>2637.683817986625</v>
+        <v>2316.149203924524</v>
       </c>
       <c r="W26" t="n">
-        <v>2389.223419333039</v>
+        <v>2316.149203924524</v>
       </c>
       <c r="X26" t="n">
-        <v>2015.757661071959</v>
+        <v>2316.149203924524</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.618329096147</v>
+        <v>2316.149203924524</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>974.4657096480555</v>
+        <v>974.4657096480563</v>
       </c>
       <c r="C27" t="n">
-        <v>800.0126803669285</v>
+        <v>800.0126803669293</v>
       </c>
       <c r="D27" t="n">
-        <v>651.0782707056774</v>
+        <v>651.0782707056781</v>
       </c>
       <c r="E27" t="n">
-        <v>491.8408157002218</v>
+        <v>491.8408157002226</v>
       </c>
       <c r="F27" t="n">
-        <v>345.3062577271069</v>
+        <v>345.3062577271076</v>
       </c>
       <c r="G27" t="n">
-        <v>207.6900901492786</v>
+        <v>207.690090149279</v>
       </c>
       <c r="H27" t="n">
         <v>105.0862026388847</v>
@@ -6308,19 +6308,19 @@
         <v>155.6399601725249</v>
       </c>
       <c r="K27" t="n">
-        <v>195.5878757682502</v>
+        <v>457.408460410703</v>
       </c>
       <c r="L27" t="n">
-        <v>531.5915615546634</v>
+        <v>924.5778458137172</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.735421003921</v>
+        <v>1521.721705262974</v>
       </c>
       <c r="N27" t="n">
-        <v>1757.390914943248</v>
+        <v>2072.669055896785</v>
       </c>
       <c r="O27" t="n">
-        <v>2266.072195826866</v>
+        <v>2581.350336780404</v>
       </c>
       <c r="P27" t="n">
         <v>2657.330702192469</v>
@@ -6332,22 +6332,22 @@
         <v>2626.239401505958</v>
       </c>
       <c r="S27" t="n">
-        <v>2473.526337441359</v>
+        <v>2473.52633744136</v>
       </c>
       <c r="T27" t="n">
-        <v>2275.832596109563</v>
+        <v>2275.832596109564</v>
       </c>
       <c r="U27" t="n">
         <v>2047.682310598555</v>
       </c>
       <c r="V27" t="n">
-        <v>1812.530202366812</v>
+        <v>1812.530202366813</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.29284563861</v>
+        <v>1558.292845638611</v>
       </c>
       <c r="X27" t="n">
-        <v>1350.441345433077</v>
+        <v>1350.441345433078</v>
       </c>
       <c r="Y27" t="n">
         <v>1142.681046668124</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>792.4269845069641</v>
+        <v>390.8535965347868</v>
       </c>
       <c r="C28" t="n">
-        <v>792.4269845069641</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="D28" t="n">
-        <v>642.3103450946284</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="E28" t="n">
-        <v>494.3972515122352</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="F28" t="n">
-        <v>347.5073040143249</v>
+        <v>221.9174136068799</v>
       </c>
       <c r="G28" t="n">
-        <v>178.7539377653877</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H28" t="n">
-        <v>178.7539377653877</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I28" t="n">
         <v>53.16404735794277</v>
@@ -6408,28 +6408,28 @@
         <v>929.4930737367362</v>
       </c>
       <c r="R28" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="S28" t="n">
-        <v>792.4269845069641</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T28" t="n">
-        <v>792.4269845069641</v>
+        <v>793.2946405085567</v>
       </c>
       <c r="U28" t="n">
-        <v>792.4269845069641</v>
+        <v>793.2946405085567</v>
       </c>
       <c r="V28" t="n">
-        <v>792.4269845069641</v>
+        <v>793.2946405085567</v>
       </c>
       <c r="W28" t="n">
-        <v>792.4269845069641</v>
+        <v>793.2946405085567</v>
       </c>
       <c r="X28" t="n">
-        <v>792.4269845069641</v>
+        <v>793.2946405085567</v>
       </c>
       <c r="Y28" t="n">
-        <v>792.4269845069641</v>
+        <v>572.5020613650265</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1378.170185192044</v>
+        <v>1709.452332932924</v>
       </c>
       <c r="C29" t="n">
-        <v>1378.170185192044</v>
+        <v>1340.489815992513</v>
       </c>
       <c r="D29" t="n">
-        <v>1378.170185192044</v>
+        <v>982.2241173857622</v>
       </c>
       <c r="E29" t="n">
-        <v>992.3819325937995</v>
+        <v>596.4358647875179</v>
       </c>
       <c r="F29" t="n">
-        <v>581.396027804192</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="G29" t="n">
-        <v>163.9816020605902</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="H29" t="n">
-        <v>163.9816020605902</v>
+        <v>185.4499599979102</v>
       </c>
       <c r="I29" t="n">
         <v>53.16404735794277</v>
       </c>
       <c r="J29" t="n">
-        <v>214.6321445117204</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K29" t="n">
-        <v>577.3757701066936</v>
+        <v>415.907672952916</v>
       </c>
       <c r="L29" t="n">
-        <v>1079.667941185006</v>
+        <v>918.1998440312284</v>
       </c>
       <c r="M29" t="n">
-        <v>1210.15291016479</v>
+        <v>1493.703211168917</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.099777317518</v>
+        <v>2063.886826911326</v>
       </c>
       <c r="O29" t="n">
-        <v>2064.320359328654</v>
+        <v>2557.107408922462</v>
       </c>
       <c r="P29" t="n">
-        <v>2447.598332106165</v>
+        <v>2621.804660610206</v>
       </c>
       <c r="Q29" t="n">
         <v>2658.202367897139</v>
@@ -6490,25 +6490,25 @@
         <v>2658.202367897139</v>
       </c>
       <c r="S29" t="n">
-        <v>2494.54393069905</v>
+        <v>2658.202367897139</v>
       </c>
       <c r="T29" t="n">
-        <v>2494.54393069905</v>
+        <v>2469.517931258126</v>
       </c>
       <c r="U29" t="n">
-        <v>2494.54393069905</v>
+        <v>2469.517931258126</v>
       </c>
       <c r="V29" t="n">
-        <v>2494.54393069905</v>
+        <v>2469.517931258126</v>
       </c>
       <c r="W29" t="n">
-        <v>2141.775275428935</v>
+        <v>2469.517931258126</v>
       </c>
       <c r="X29" t="n">
-        <v>1768.309517167856</v>
+        <v>2096.052172997046</v>
       </c>
       <c r="Y29" t="n">
-        <v>1378.170185192044</v>
+        <v>2096.052172997046</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>53.16404735794277</v>
       </c>
       <c r="K30" t="n">
-        <v>93.11196295366804</v>
+        <v>354.9325475961209</v>
       </c>
       <c r="L30" t="n">
-        <v>531.5915615546634</v>
+        <v>822.101932999135</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.735421003921</v>
+        <v>1419.245792448392</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.390914943248</v>
+        <v>1939.338096168719</v>
       </c>
       <c r="O30" t="n">
-        <v>2266.072195826866</v>
+        <v>2058.095680968375</v>
       </c>
       <c r="P30" t="n">
-        <v>2657.330702192469</v>
+        <v>2449.354187333978</v>
       </c>
       <c r="Q30" t="n">
         <v>2658.202367897139</v>
@@ -6648,22 +6648,22 @@
         <v>929.4930737367362</v>
       </c>
       <c r="S31" t="n">
-        <v>825.2552564988076</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="T31" t="n">
-        <v>825.2552564988076</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="U31" t="n">
-        <v>825.2552564988076</v>
+        <v>929.4930737367362</v>
       </c>
       <c r="V31" t="n">
-        <v>570.5707682929208</v>
+        <v>791.3633474364508</v>
       </c>
       <c r="W31" t="n">
-        <v>281.1535982559601</v>
+        <v>501.9461773994902</v>
       </c>
       <c r="X31" t="n">
-        <v>53.16404735794277</v>
+        <v>273.9566265014729</v>
       </c>
       <c r="Y31" t="n">
         <v>53.16404735794277</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>797.2249203800511</v>
+        <v>1166.667149364897</v>
       </c>
       <c r="C32" t="n">
-        <v>792.1468309895099</v>
+        <v>797.7046324244855</v>
       </c>
       <c r="D32" t="n">
-        <v>792.1468309895099</v>
+        <v>797.7046324244855</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1468309895099</v>
+        <v>797.7046324244855</v>
       </c>
       <c r="F32" t="n">
-        <v>792.1468309895099</v>
+        <v>386.7187276348779</v>
       </c>
       <c r="G32" t="n">
-        <v>374.732405245908</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H32" t="n">
         <v>53.16404735794277</v>
@@ -6706,19 +6706,19 @@
         <v>577.3757701066936</v>
       </c>
       <c r="L32" t="n">
-        <v>802.4049738875382</v>
+        <v>1079.667941185006</v>
       </c>
       <c r="M32" t="n">
-        <v>1377.908341025227</v>
+        <v>1655.171308322695</v>
       </c>
       <c r="N32" t="n">
-        <v>1948.091956767636</v>
+        <v>2099.872339160592</v>
       </c>
       <c r="O32" t="n">
-        <v>2064.320359328654</v>
+        <v>2593.092921171728</v>
       </c>
       <c r="P32" t="n">
-        <v>2447.598332106165</v>
+        <v>2657.790172859471</v>
       </c>
       <c r="Q32" t="n">
         <v>2658.202367897139</v>
@@ -6739,13 +6739,13 @@
         <v>1926.732747690099</v>
       </c>
       <c r="W32" t="n">
-        <v>1573.964092419985</v>
+        <v>1926.732747690099</v>
       </c>
       <c r="X32" t="n">
-        <v>1573.964092419985</v>
+        <v>1553.266989429019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1183.824760444173</v>
+        <v>1553.266989429019</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>53.16404735794277</v>
       </c>
       <c r="J33" t="n">
-        <v>155.6399601725249</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="K33" t="n">
-        <v>457.408460410703</v>
+        <v>330.994611893276</v>
       </c>
       <c r="L33" t="n">
-        <v>924.5778458137172</v>
+        <v>798.1639972962902</v>
       </c>
       <c r="M33" t="n">
-        <v>1060.673692150475</v>
+        <v>1395.307856745547</v>
       </c>
       <c r="N33" t="n">
         <v>1549.414400084757</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="C34" t="n">
-        <v>760.5568908088293</v>
+        <v>200.0539948558531</v>
       </c>
       <c r="D34" t="n">
-        <v>610.4402513964935</v>
+        <v>200.0539948558531</v>
       </c>
       <c r="E34" t="n">
-        <v>462.5271578141004</v>
+        <v>200.0539948558531</v>
       </c>
       <c r="F34" t="n">
-        <v>315.63721031619</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="G34" t="n">
-        <v>315.63721031619</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="H34" t="n">
-        <v>160.0798601528146</v>
+        <v>53.16404735794277</v>
       </c>
       <c r="I34" t="n">
         <v>53.16404735794277</v>
@@ -6885,25 +6885,25 @@
         <v>929.4930737367362</v>
       </c>
       <c r="S34" t="n">
-        <v>929.4930737367362</v>
+        <v>719.4993233040288</v>
       </c>
       <c r="T34" t="n">
-        <v>929.4930737367362</v>
+        <v>493.2440812997517</v>
       </c>
       <c r="U34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="V34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="W34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="X34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.4930737367362</v>
+        <v>204.0839128095594</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>774.2625651450446</v>
+        <v>1084.076354948605</v>
       </c>
       <c r="C35" t="n">
-        <v>774.2625651450446</v>
+        <v>715.1138380081934</v>
       </c>
       <c r="D35" t="n">
-        <v>774.2625651450446</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="E35" t="n">
-        <v>774.2625651450446</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="F35" t="n">
-        <v>774.2625651450446</v>
+        <v>356.8481394014428</v>
       </c>
       <c r="G35" t="n">
         <v>356.8481394014428</v>
@@ -6937,25 +6937,25 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J35" t="n">
-        <v>196.7478786672552</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K35" t="n">
-        <v>559.4915042622285</v>
+        <v>398.0234071084508</v>
       </c>
       <c r="L35" t="n">
-        <v>648.2990729355949</v>
+        <v>834.6107033377361</v>
       </c>
       <c r="M35" t="n">
-        <v>778.7840419153792</v>
+        <v>965.0956723175204</v>
       </c>
       <c r="N35" t="n">
-        <v>915.9942024899245</v>
+        <v>1102.305832892066</v>
       </c>
       <c r="O35" t="n">
-        <v>1170.107067105395</v>
+        <v>1538.893129121351</v>
       </c>
       <c r="P35" t="n">
-        <v>1553.385039882907</v>
+        <v>1763.576880636213</v>
       </c>
       <c r="Q35" t="n">
         <v>1763.98907567388</v>
@@ -6967,22 +6967,22 @@
         <v>1743.470525763367</v>
       </c>
       <c r="T35" t="n">
-        <v>1527.2407800085</v>
+        <v>1668.857077065427</v>
       </c>
       <c r="U35" t="n">
-        <v>1527.2407800085</v>
+        <v>1415.139242292176</v>
       </c>
       <c r="V35" t="n">
-        <v>1527.2407800085</v>
+        <v>1084.076354948605</v>
       </c>
       <c r="W35" t="n">
-        <v>1174.472124738386</v>
+        <v>1084.076354948605</v>
       </c>
       <c r="X35" t="n">
-        <v>801.0063664773058</v>
+        <v>1084.076354948605</v>
       </c>
       <c r="Y35" t="n">
-        <v>774.2625651450446</v>
+        <v>1084.076354948605</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>670.3824879773263</v>
+        <v>506.5864333778887</v>
       </c>
       <c r="C36" t="n">
-        <v>627.602371731128</v>
+        <v>332.1334040967617</v>
       </c>
       <c r="D36" t="n">
-        <v>478.6679620698768</v>
+        <v>332.1334040967617</v>
       </c>
       <c r="E36" t="n">
-        <v>319.4305070644212</v>
+        <v>172.8959490913062</v>
       </c>
       <c r="F36" t="n">
         <v>172.8959490913062</v>
@@ -7016,52 +7016,52 @@
         <v>35.2797815134776</v>
       </c>
       <c r="J36" t="n">
-        <v>137.7556943280597</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="K36" t="n">
-        <v>439.5241945662378</v>
+        <v>337.0482817516557</v>
       </c>
       <c r="L36" t="n">
-        <v>539.5616381188274</v>
+        <v>773.635577980941</v>
       </c>
       <c r="M36" t="n">
-        <v>675.6574844555848</v>
+        <v>909.7314243176984</v>
       </c>
       <c r="N36" t="n">
-        <v>829.7640277947938</v>
+        <v>1063.837967656907</v>
       </c>
       <c r="O36" t="n">
-        <v>1163.882388745116</v>
+        <v>1182.595552456564</v>
       </c>
       <c r="P36" t="n">
-        <v>1555.14089511072</v>
+        <v>1573.854058822167</v>
       </c>
       <c r="Q36" t="n">
         <v>1763.98907567388</v>
       </c>
       <c r="R36" t="n">
-        <v>1763.98907567388</v>
+        <v>1732.026109282699</v>
       </c>
       <c r="S36" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.313045218101</v>
       </c>
       <c r="T36" t="n">
-        <v>1763.98907567388</v>
+        <v>1579.313045218101</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.838790162871</v>
+        <v>1351.162759707092</v>
       </c>
       <c r="V36" t="n">
-        <v>1300.686681931129</v>
+        <v>1116.01065147535</v>
       </c>
       <c r="W36" t="n">
-        <v>1046.449325202927</v>
+        <v>861.7732947471482</v>
       </c>
       <c r="X36" t="n">
-        <v>838.5978249973944</v>
+        <v>714.3467321428427</v>
       </c>
       <c r="Y36" t="n">
-        <v>838.5978249973944</v>
+        <v>506.5864333778887</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>817.8890111829609</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="C37" t="n">
-        <v>648.952828255054</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="D37" t="n">
-        <v>498.8361888427182</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="E37" t="n">
-        <v>350.9230952603251</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="F37" t="n">
-        <v>204.0331477624147</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="G37" t="n">
         <v>35.2797815134776</v>
@@ -7119,28 +7119,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R37" t="n">
-        <v>817.8890111829609</v>
+        <v>911.608807892271</v>
       </c>
       <c r="S37" t="n">
-        <v>817.8890111829609</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T37" t="n">
-        <v>817.8890111829609</v>
+        <v>685.3535658879938</v>
       </c>
       <c r="U37" t="n">
-        <v>817.8890111829609</v>
+        <v>685.3535658879938</v>
       </c>
       <c r="V37" t="n">
-        <v>817.8890111829609</v>
+        <v>430.6690776821069</v>
       </c>
       <c r="W37" t="n">
-        <v>817.8890111829609</v>
+        <v>263.2693324114949</v>
       </c>
       <c r="X37" t="n">
-        <v>817.8890111829609</v>
+        <v>35.2797815134776</v>
       </c>
       <c r="Y37" t="n">
-        <v>817.8890111829609</v>
+        <v>35.2797815134776</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>452.6942072570794</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="C38" t="n">
-        <v>452.6942072570794</v>
+        <v>1249.468364644931</v>
       </c>
       <c r="D38" t="n">
-        <v>452.6942072570794</v>
+        <v>1249.468364644931</v>
       </c>
       <c r="E38" t="n">
-        <v>452.6942072570794</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F38" t="n">
         <v>452.6942072570794</v>
@@ -7174,19 +7174,19 @@
         <v>35.27978151347758</v>
       </c>
       <c r="J38" t="n">
-        <v>196.7478786672552</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="K38" t="n">
-        <v>559.4915042622285</v>
+        <v>398.0234071084508</v>
       </c>
       <c r="L38" t="n">
-        <v>994.5972031648535</v>
+        <v>834.6107033377359</v>
       </c>
       <c r="M38" t="n">
-        <v>1125.082172144638</v>
+        <v>965.0956723175202</v>
       </c>
       <c r="N38" t="n">
-        <v>1262.292332719183</v>
+        <v>1401.682968546805</v>
       </c>
       <c r="O38" t="n">
         <v>1698.879628948468</v>
@@ -7198,28 +7198,28 @@
         <v>1763.989075673879</v>
       </c>
       <c r="R38" t="n">
-        <v>1763.989075673879</v>
+        <v>1743.470525763366</v>
       </c>
       <c r="S38" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="T38" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="U38" t="n">
-        <v>1569.067952764085</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="V38" t="n">
-        <v>1569.067952764085</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="W38" t="n">
-        <v>1216.299297493971</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="X38" t="n">
-        <v>842.8335392328911</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="Y38" t="n">
-        <v>452.6942072570794</v>
+        <v>1579.812088565277</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>700.8390321565378</v>
+        <v>724.0145019062916</v>
       </c>
       <c r="C39" t="n">
-        <v>679.5245270120699</v>
+        <v>724.0145019062916</v>
       </c>
       <c r="D39" t="n">
-        <v>530.5901173508187</v>
+        <v>575.0800922450403</v>
       </c>
       <c r="E39" t="n">
-        <v>371.3526623453632</v>
+        <v>415.8426372395848</v>
       </c>
       <c r="F39" t="n">
-        <v>224.8181043722481</v>
+        <v>269.3080792664698</v>
       </c>
       <c r="G39" t="n">
-        <v>87.20193679441954</v>
+        <v>189.8058243048138</v>
       </c>
       <c r="H39" t="n">
         <v>87.20193679441954</v>
@@ -7259,46 +7259,46 @@
         <v>439.5241945662378</v>
       </c>
       <c r="L39" t="n">
-        <v>752.3708437934016</v>
+        <v>645.0692176983546</v>
       </c>
       <c r="M39" t="n">
-        <v>888.466690130159</v>
+        <v>781.165064035112</v>
       </c>
       <c r="N39" t="n">
-        <v>1042.573233469368</v>
+        <v>935.271607374321</v>
       </c>
       <c r="O39" t="n">
-        <v>1479.160529698653</v>
+        <v>1371.858903603606</v>
       </c>
       <c r="P39" t="n">
-        <v>1555.140895110718</v>
+        <v>1763.117409969209</v>
       </c>
       <c r="Q39" t="n">
         <v>1763.989075673879</v>
       </c>
       <c r="R39" t="n">
-        <v>1763.989075673879</v>
+        <v>1732.026109282698</v>
       </c>
       <c r="S39" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.3130452181</v>
       </c>
       <c r="T39" t="n">
-        <v>1566.295334342083</v>
+        <v>1381.619303886304</v>
       </c>
       <c r="U39" t="n">
-        <v>1566.295334342083</v>
+        <v>1381.619303886304</v>
       </c>
       <c r="V39" t="n">
-        <v>1331.14322611034</v>
+        <v>1146.467195654561</v>
       </c>
       <c r="W39" t="n">
-        <v>1076.905869382139</v>
+        <v>892.2298389263597</v>
       </c>
       <c r="X39" t="n">
-        <v>869.0543691766059</v>
+        <v>892.2298389263597</v>
       </c>
       <c r="Y39" t="n">
-        <v>869.0543691766059</v>
+        <v>892.2298389263597</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
       <c r="C40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
       <c r="D40" t="n">
-        <v>204.0331477624147</v>
+        <v>190.837131676853</v>
       </c>
       <c r="E40" t="n">
-        <v>204.0331477624147</v>
+        <v>190.837131676853</v>
       </c>
       <c r="F40" t="n">
-        <v>204.0331477624147</v>
+        <v>190.837131676853</v>
       </c>
       <c r="G40" t="n">
-        <v>35.27978151347758</v>
+        <v>190.837131676853</v>
       </c>
       <c r="H40" t="n">
         <v>35.27978151347758</v>
@@ -7359,25 +7359,25 @@
         <v>911.608807892271</v>
       </c>
       <c r="S40" t="n">
-        <v>701.6150574595636</v>
+        <v>911.608807892271</v>
       </c>
       <c r="T40" t="n">
-        <v>643.3099556649427</v>
+        <v>685.3535658879938</v>
       </c>
       <c r="U40" t="n">
-        <v>354.1497871747505</v>
+        <v>396.1933973978016</v>
       </c>
       <c r="V40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
       <c r="W40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
       <c r="X40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
       <c r="Y40" t="n">
-        <v>354.1497871747505</v>
+        <v>190.837131676853</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>700.2693501072383</v>
+        <v>1046.326348266187</v>
       </c>
       <c r="C41" t="n">
-        <v>700.2693501072383</v>
+        <v>1046.326348266187</v>
       </c>
       <c r="D41" t="n">
-        <v>700.2693501072383</v>
+        <v>1046.326348266187</v>
       </c>
       <c r="E41" t="n">
-        <v>700.2693501072383</v>
+        <v>660.5380956679423</v>
       </c>
       <c r="F41" t="n">
-        <v>356.8481394014428</v>
+        <v>249.5521908783348</v>
       </c>
       <c r="G41" t="n">
-        <v>356.8481394014428</v>
+        <v>249.5521908783348</v>
       </c>
       <c r="H41" t="n">
         <v>35.27978151347758</v>
@@ -7411,25 +7411,25 @@
         <v>35.27978151347758</v>
       </c>
       <c r="J41" t="n">
-        <v>196.7478786672552</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="K41" t="n">
-        <v>272.889337699595</v>
+        <v>398.0234071084508</v>
       </c>
       <c r="L41" t="n">
-        <v>709.47663392888</v>
+        <v>486.8309757818173</v>
       </c>
       <c r="M41" t="n">
-        <v>1146.063930158165</v>
+        <v>617.3159447616017</v>
       </c>
       <c r="N41" t="n">
-        <v>1582.65122638745</v>
+        <v>754.526105336147</v>
       </c>
       <c r="O41" t="n">
-        <v>1698.879628948468</v>
+        <v>1170.107067105394</v>
       </c>
       <c r="P41" t="n">
-        <v>1763.576880636211</v>
+        <v>1553.385039882906</v>
       </c>
       <c r="Q41" t="n">
         <v>1763.989075673879</v>
@@ -7438,25 +7438,25 @@
         <v>1763.989075673879</v>
       </c>
       <c r="S41" t="n">
-        <v>1600.33063847579</v>
+        <v>1763.989075673879</v>
       </c>
       <c r="T41" t="n">
-        <v>1384.100892720923</v>
+        <v>1763.989075673879</v>
       </c>
       <c r="U41" t="n">
-        <v>1384.100892720923</v>
+        <v>1763.989075673879</v>
       </c>
       <c r="V41" t="n">
-        <v>1053.038005377352</v>
+        <v>1432.926188330308</v>
       </c>
       <c r="W41" t="n">
-        <v>700.2693501072383</v>
+        <v>1432.926188330308</v>
       </c>
       <c r="X41" t="n">
-        <v>700.2693501072383</v>
+        <v>1432.926188330308</v>
       </c>
       <c r="Y41" t="n">
-        <v>700.2693501072383</v>
+        <v>1432.926188330308</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>555.1277908126735</v>
+        <v>433.3526366582381</v>
       </c>
       <c r="C42" t="n">
-        <v>555.1277908126735</v>
+        <v>433.3526366582381</v>
       </c>
       <c r="D42" t="n">
-        <v>406.1933811514223</v>
+        <v>284.4182269969868</v>
       </c>
       <c r="E42" t="n">
-        <v>275.4998366017005</v>
+        <v>284.4182269969868</v>
       </c>
       <c r="F42" t="n">
-        <v>275.4998366017005</v>
+        <v>137.8836690238718</v>
       </c>
       <c r="G42" t="n">
         <v>137.8836690238718</v>
@@ -7493,49 +7493,49 @@
         <v>137.7556943280597</v>
       </c>
       <c r="K42" t="n">
-        <v>387.1909088878373</v>
+        <v>439.5241945662378</v>
       </c>
       <c r="L42" t="n">
-        <v>487.228352440427</v>
+        <v>539.5616381188274</v>
       </c>
       <c r="M42" t="n">
-        <v>923.815648669712</v>
+        <v>976.1489343481124</v>
       </c>
       <c r="N42" t="n">
-        <v>1360.402944898997</v>
+        <v>1130.255477687321</v>
       </c>
       <c r="O42" t="n">
-        <v>1479.160529698653</v>
+        <v>1566.842773916606</v>
       </c>
       <c r="P42" t="n">
-        <v>1555.140895110718</v>
+        <v>1642.823139328672</v>
       </c>
       <c r="Q42" t="n">
         <v>1763.989075673879</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.989075673879</v>
+        <v>1732.026109282698</v>
       </c>
       <c r="S42" t="n">
-        <v>1611.276011609281</v>
+        <v>1579.3130452181</v>
       </c>
       <c r="T42" t="n">
-        <v>1413.582270277485</v>
+        <v>1381.619303886304</v>
       </c>
       <c r="U42" t="n">
-        <v>1185.431984766476</v>
+        <v>1153.469018375295</v>
       </c>
       <c r="V42" t="n">
-        <v>1185.431984766476</v>
+        <v>918.3169101435526</v>
       </c>
       <c r="W42" t="n">
-        <v>931.1946280382745</v>
+        <v>664.079553415351</v>
       </c>
       <c r="X42" t="n">
-        <v>723.3431278327416</v>
+        <v>641.1129354231921</v>
       </c>
       <c r="Y42" t="n">
-        <v>723.3431278327416</v>
+        <v>433.3526366582381</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.6753272493995</v>
+        <v>332.2863684237237</v>
       </c>
       <c r="C43" t="n">
-        <v>220.6753272493995</v>
+        <v>332.2863684237237</v>
       </c>
       <c r="D43" t="n">
-        <v>220.6753272493995</v>
+        <v>182.1697290113879</v>
       </c>
       <c r="E43" t="n">
-        <v>220.6753272493995</v>
+        <v>182.1697290113879</v>
       </c>
       <c r="F43" t="n">
-        <v>220.6753272493995</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="G43" t="n">
-        <v>190.837131676853</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="H43" t="n">
         <v>35.27978151347758</v>
@@ -7593,28 +7593,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R43" t="n">
-        <v>911.608807892271</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="S43" t="n">
-        <v>701.6150574595636</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="T43" t="n">
-        <v>475.3598154552864</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="U43" t="n">
-        <v>475.3598154552864</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6753272493995</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="W43" t="n">
-        <v>220.6753272493995</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6753272493995</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.6753272493995</v>
+        <v>332.2863684237237</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1003.923477348677</v>
+        <v>863.680112046687</v>
       </c>
       <c r="C44" t="n">
-        <v>634.9609604082657</v>
+        <v>863.680112046687</v>
       </c>
       <c r="D44" t="n">
-        <v>634.9609604082657</v>
+        <v>863.680112046687</v>
       </c>
       <c r="E44" t="n">
-        <v>634.9609604082657</v>
+        <v>863.680112046687</v>
       </c>
       <c r="F44" t="n">
-        <v>223.9750556186581</v>
+        <v>452.6942072570794</v>
       </c>
       <c r="G44" t="n">
-        <v>223.9750556186581</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="H44" t="n">
         <v>35.27978151347758</v>
@@ -7648,52 +7648,52 @@
         <v>35.27978151347758</v>
       </c>
       <c r="J44" t="n">
-        <v>196.7478786672552</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="K44" t="n">
-        <v>238.5875458167754</v>
+        <v>398.0234071084508</v>
       </c>
       <c r="L44" t="n">
-        <v>675.1748420460603</v>
+        <v>834.6107033377359</v>
       </c>
       <c r="M44" t="n">
-        <v>805.6598110258446</v>
+        <v>965.0956723175202</v>
       </c>
       <c r="N44" t="n">
-        <v>1242.24710725513</v>
+        <v>1102.305832892065</v>
       </c>
       <c r="O44" t="n">
-        <v>1358.475509816147</v>
+        <v>1538.89312912135</v>
       </c>
       <c r="P44" t="n">
-        <v>1553.385039882906</v>
+        <v>1603.590380809094</v>
       </c>
       <c r="Q44" t="n">
         <v>1763.989075673879</v>
       </c>
       <c r="R44" t="n">
-        <v>1763.989075673879</v>
+        <v>1743.470525763366</v>
       </c>
       <c r="S44" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="T44" t="n">
-        <v>1763.989075673879</v>
+        <v>1579.812088565277</v>
       </c>
       <c r="U44" t="n">
-        <v>1763.989075673879</v>
+        <v>1326.094253792025</v>
       </c>
       <c r="V44" t="n">
-        <v>1763.989075673879</v>
+        <v>1326.094253792025</v>
       </c>
       <c r="W44" t="n">
-        <v>1763.989075673879</v>
+        <v>973.3255985219114</v>
       </c>
       <c r="X44" t="n">
-        <v>1390.523317412799</v>
+        <v>863.680112046687</v>
       </c>
       <c r="Y44" t="n">
-        <v>1390.523317412799</v>
+        <v>863.680112046687</v>
       </c>
     </row>
     <row r="45">
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>635.5938565493492</v>
+        <v>232.9654814893945</v>
       </c>
       <c r="C45" t="n">
-        <v>635.5938565493492</v>
+        <v>58.51245220826749</v>
       </c>
       <c r="D45" t="n">
-        <v>486.6594468880979</v>
+        <v>58.51245220826749</v>
       </c>
       <c r="E45" t="n">
-        <v>327.4219918826424</v>
+        <v>58.51245220826749</v>
       </c>
       <c r="F45" t="n">
-        <v>327.4219918826424</v>
+        <v>58.51245220826749</v>
       </c>
       <c r="G45" t="n">
-        <v>189.8058243048138</v>
+        <v>58.51245220826749</v>
       </c>
       <c r="H45" t="n">
-        <v>87.20193679441954</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="I45" t="n">
         <v>35.27978151347758</v>
       </c>
       <c r="J45" t="n">
-        <v>137.7556943280597</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="K45" t="n">
-        <v>439.5241945662378</v>
+        <v>337.0482817516557</v>
       </c>
       <c r="L45" t="n">
-        <v>539.5616381188274</v>
+        <v>437.0857253042453</v>
       </c>
       <c r="M45" t="n">
-        <v>675.6574844555848</v>
+        <v>573.1815716410027</v>
       </c>
       <c r="N45" t="n">
-        <v>829.7640277947938</v>
+        <v>727.2950925158303</v>
       </c>
       <c r="O45" t="n">
         <v>1163.882388745115</v>
@@ -7766,13 +7766,13 @@
         <v>1071.029974208151</v>
       </c>
       <c r="W45" t="n">
-        <v>843.3541553143032</v>
+        <v>816.7926174799493</v>
       </c>
       <c r="X45" t="n">
-        <v>843.3541553143032</v>
+        <v>608.9411172744165</v>
       </c>
       <c r="Y45" t="n">
-        <v>635.5938565493492</v>
+        <v>401.1808185094625</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
       <c r="C46" t="n">
-        <v>412.4548889693713</v>
+        <v>185.3964209258133</v>
       </c>
       <c r="D46" t="n">
-        <v>412.4548889693713</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="E46" t="n">
-        <v>264.5417953869782</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="F46" t="n">
-        <v>264.5417953869782</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="G46" t="n">
-        <v>95.78842913804107</v>
+        <v>35.27978151347758</v>
       </c>
       <c r="H46" t="n">
         <v>35.27978151347758</v>
@@ -7830,28 +7830,28 @@
         <v>911.608807892271</v>
       </c>
       <c r="R46" t="n">
-        <v>911.608807892271</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="S46" t="n">
-        <v>701.6150574595636</v>
+        <v>774.5427186624991</v>
       </c>
       <c r="T46" t="n">
-        <v>701.6150574595636</v>
+        <v>548.2874766582219</v>
       </c>
       <c r="U46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
       <c r="V46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
       <c r="W46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
       <c r="X46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
       <c r="Y46" t="n">
-        <v>412.4548889693713</v>
+        <v>354.3326038537202</v>
       </c>
     </row>
   </sheetData>
@@ -8692,22 +8692,22 @@
         <v>5.997527137954989</v>
       </c>
       <c r="K11" t="n">
-        <v>181.2910330057944</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>56.48549932012577</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>84.95720126334481</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>118.3542313529419</v>
+        <v>158.2025637752657</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537638</v>
       </c>
       <c r="K12" t="n">
-        <v>81.66111347221347</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>67.89014796570456</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>42.98499674710132</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>136.5461763246171</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>22.58001229537635</v>
+        <v>65.56500904247766</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>42.98499674710129</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9169,16 +9169,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>133.8487082342324</v>
+        <v>122.9377390090557</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>91.75032408633552</v>
       </c>
       <c r="N17" t="n">
-        <v>59.64565989799971</v>
+        <v>84.95720126334476</v>
       </c>
       <c r="O17" t="n">
-        <v>106.1508962265038</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9242,22 +9242,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>183.2018931611427</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>69.86039132180767</v>
       </c>
       <c r="M18" t="n">
-        <v>45.95509474539213</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>103.5961666925256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>181.2910330057943</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>118.3542313529416</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.5461763246171</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>22.58001229537635</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>122.5054002754211</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>86.08277120050414</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>44.47411300702512</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>149.5512614379179</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9655,10 +9655,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>78.59613812841224</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>36.34900227198516</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>22.58001229537635</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>266.1715631985205</v>
       </c>
       <c r="O24" t="n">
-        <v>364.8827366484277</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>38.69570667166747</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9647395592164969</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>238.3497396301248</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>400.8493002975775</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,19 +10120,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>225.9966733112959</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>36.34900227198516</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,25 +10193,25 @@
         <v>22.58001229537635</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>341.8607626751573</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>369.6825862435528</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,22 +10354,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>137.5976112196749</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>310.5968386498504</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>240.285503979402</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>338.0143076717909</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>351.2926540968878</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>139.2772343984375</v>
+        <v>323.5948420891592</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>161.6025250778971</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>339.9493461380764</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>217.5361375259258</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>191.1751021687307</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>349.7960911406651</v>
+        <v>351.2926540968875</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>302.4011471259998</v>
       </c>
       <c r="O38" t="n">
-        <v>323.5948420891589</v>
+        <v>182.7962200410555</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>214.9587936106809</v>
+        <v>106.573312706593</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>321.0401125551807</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K41" t="n">
-        <v>34.64827462911073</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>351.2926540968875</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>309.1942699489906</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>302.4011471259998</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>302.3763224325553</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>211.6033322869216</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>303.5267170631592</v>
       </c>
       <c r="N42" t="n">
-        <v>285.3340938283596</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>321.0401125551807</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>121.5093642833711</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>5.997527137954933</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>351.2926540968875</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>302.4011471259998</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>323.5948420891589</v>
       </c>
       <c r="P44" t="n">
-        <v>131.5275539181967</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>161.6025250778964</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>22.58001229537635</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>0.007048015776348393</v>
       </c>
       <c r="O45" t="n">
-        <v>217.5361375259246</v>
+        <v>321.0401125551807</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>131.1297185648683</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>382.8196212731698</v>
       </c>
       <c r="G11" t="n">
-        <v>413.2402814861658</v>
+        <v>189.6869584303511</v>
       </c>
       <c r="H11" t="n">
         <v>318.3526743090856</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.0674482973184</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>74.58825388936575</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V11" t="n">
-        <v>104.1989354143203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23357,7 +23357,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I12" t="n">
-        <v>51.40293372813255</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>151.1859334239523</v>
       </c>
       <c r="T12" t="n">
-        <v>195.7168039184781</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.315459600083841</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V12" t="n">
-        <v>9.247264093610625</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>68.56192566211678</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>103.5667822390004</v>
       </c>
     </row>
     <row r="13">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.693616733572085</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>135.6954283374743</v>
@@ -23469,10 +23469,10 @@
         <v>207.8938129283803</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4393665284197823</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U13" t="n">
-        <v>89.36279985772882</v>
+        <v>98.05641659130089</v>
       </c>
       <c r="V13" t="n">
         <v>28.58432026801336</v>
@@ -23481,7 +23481,7 @@
         <v>62.96967528077636</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>2.156332333222508</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.1805186076659</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>141.7195687151929</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>157.7772746731216</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>125.6876456615983</v>
       </c>
       <c r="X14" t="n">
-        <v>172.8253337309075</v>
+        <v>146.1777776226544</v>
       </c>
       <c r="Y14" t="n">
         <v>162.6846156002389</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6245814689486906</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>101.5778486352903</v>
@@ -23633,7 +23633,7 @@
         <v>2.315459600083813</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>39.0064292067909</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23749,7 +23749,7 @@
         <v>189.6869584303511</v>
       </c>
       <c r="H17" t="n">
-        <v>94.79935125327088</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I17" t="n">
         <v>130.9630535135678</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>162.0218528261079</v>
       </c>
       <c r="T17" t="n">
-        <v>214.0674482973184</v>
+        <v>37.47504576116503</v>
       </c>
       <c r="U17" t="n">
-        <v>54.27488947795743</v>
+        <v>27.62733336970427</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>84.24011056777108</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>98.43729850792781</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>28.14166010510493</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>91.15269158029683</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H19" t="n">
         <v>154.0017766617416</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J19" t="n">
         <v>27.95130333549406</v>
@@ -23937,16 +23937,16 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.9926895842344</v>
+        <v>68.99056581382948</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2685668052903</v>
+        <v>62.7152437494756</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>2.15633233322248</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,16 +23974,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>131.1297185648683</v>
       </c>
       <c r="E20" t="n">
-        <v>357.8739456037201</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.2402814861658</v>
+        <v>389.1838570176241</v>
       </c>
       <c r="H20" t="n">
         <v>318.3526743090856</v>
@@ -24028,16 +24028,16 @@
         <v>251.1806564255189</v>
       </c>
       <c r="V20" t="n">
-        <v>104.1989354143202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>146.1777776226544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>162.6846156002389</v>
       </c>
     </row>
     <row r="21">
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>157.0142270869512</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>101.5778486352903</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.315459600083813</v>
+        <v>225.8687826558985</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>106.7495404376801</v>
       </c>
     </row>
     <row r="22">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>143.5368719090872</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.58459912703353</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H22" t="n">
         <v>154.0017766617416</v>
@@ -24186,7 +24186,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>28.58432026801333</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>249.8553398123328</v>
       </c>
       <c r="G23" t="n">
-        <v>307.7871901031992</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>130.9630535135678</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0658325864478</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>154.0017766617416</v>
@@ -24414,19 +24414,19 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S25" t="n">
-        <v>108.3134203909377</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.9926895842344</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>124.4293049371516</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.3526743090856</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>130.9630535135678</v>
@@ -24496,22 +24496,22 @@
         <v>162.0218528261079</v>
       </c>
       <c r="T26" t="n">
-        <v>214.0674482973184</v>
+        <v>146.928836801357</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>103.2651740503622</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>154.0017766617416</v>
       </c>
       <c r="I28" t="n">
-        <v>3.294796861956542</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J28" t="n">
         <v>27.95130333549406</v>
@@ -24648,13 +24648,13 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S28" t="n">
         <v>207.8938129283803</v>
       </c>
       <c r="T28" t="n">
-        <v>223.9926895842344</v>
+        <v>89.15624068833671</v>
       </c>
       <c r="U28" t="n">
         <v>286.2685668052903</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H29" t="n">
         <v>318.3526743090856</v>
       </c>
       <c r="I29" t="n">
-        <v>21.25367435794682</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T29" t="n">
-        <v>214.0674482973184</v>
+        <v>27.26985602469568</v>
       </c>
       <c r="U29" t="n">
         <v>251.1806564255189</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24888,7 +24888,7 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S31" t="n">
-        <v>104.698373862831</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T31" t="n">
         <v>223.9926895842344</v>
@@ -24897,7 +24897,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>115.3892142865455</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>360.2455832743718</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>83.02114801200003</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I32" t="n">
         <v>130.9630535135678</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>163.2572023244586</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.0658325864478</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I34" t="n">
-        <v>21.78213369840392</v>
+        <v>127.628788365327</v>
       </c>
       <c r="J34" t="n">
         <v>27.95130333549406</v>
@@ -25125,13 +25125,13 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8938129283803</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2685668052903</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.2402814861658</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>162.0218528261079</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>140.2001340863583</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>359.7615753371149</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>130.3561839045794</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>195.7168039184781</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>59.82068822521509</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H37" t="n">
         <v>154.0017766617416</v>
@@ -25359,25 +25359,25 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R37" t="n">
-        <v>42.91282959525725</v>
+        <v>135.6954283374743</v>
       </c>
       <c r="S37" t="n">
         <v>207.8938129283803</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2685668052903</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>120.7972505186851</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,16 +25393,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>38.23260508986522</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U38" t="n">
-        <v>58.20874474482301</v>
+        <v>251.1806564255189</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>151.6071388952926</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>57.5327734900109</v>
       </c>
       <c r="H39" t="n">
-        <v>101.5778486352903</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.1859334239523</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H40" t="n">
-        <v>154.0017766617416</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>127.628788365327</v>
@@ -25599,16 +25599,16 @@
         <v>135.6954283374743</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T40" t="n">
-        <v>166.2706388075597</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>48.83494026008896</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>66.88904714297394</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.2402814861658</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>106.2229890378769</v>
       </c>
       <c r="I41" t="n">
         <v>130.9630535135678</v>
@@ -25678,10 +25678,10 @@
         <v>20.3133644114082</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>162.0218528261079</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.0674482973184</v>
       </c>
       <c r="U41" t="n">
         <v>251.1806564255189</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25715,13 +25715,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>28.25847135117635</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.6433367272689</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>183.0360333912401</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.5260189696267</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I43" t="n">
         <v>127.628788365327</v>
@@ -25833,10 +25833,10 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R43" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2685668052903</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>4.743556199941594</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2402814861658</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>131.5443529449568</v>
+        <v>318.3526743090856</v>
       </c>
       <c r="I44" t="n">
         <v>130.9630535135678</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>20.3133644114082</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>162.0218528261079</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>214.0674482973184</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1806564255189</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>261.1820690679968</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.2400059020503</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>78.57750464744831</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>51.40293372813254</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>26.2959224560104</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0658325864478</v>
       </c>
       <c r="H46" t="n">
-        <v>94.0982155134238</v>
+        <v>154.0017766617416</v>
       </c>
       <c r="I46" t="n">
         <v>127.628788365327</v>
@@ -26070,16 +26070,16 @@
         <v>8.693616733572071</v>
       </c>
       <c r="R46" t="n">
-        <v>135.6954283374743</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.8938129283803</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9926895842344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>94.25324272883367</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421636.7415705623</v>
+        <v>421636.7415705624</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421636.7415705623</v>
+        <v>421636.7415705624</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>715431.4274261341</v>
+        <v>715431.427426134</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>715431.427426134</v>
+        <v>715431.4274261341</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566499.0349869994</v>
+        <v>566499.0349869992</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>566499.0349869992</v>
+        <v>566499.0349869995</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566499.0349869992</v>
+        <v>566499.0349869994</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.4371019271</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.437101927</v>
       </c>
       <c r="E2" t="n">
         <v>265223.4127198369</v>
       </c>
       <c r="F2" t="n">
-        <v>265223.412719837</v>
+        <v>265223.4127198369</v>
       </c>
       <c r="G2" t="n">
         <v>265223.4127198369</v>
@@ -26334,13 +26334,13 @@
         <v>265223.412719837</v>
       </c>
       <c r="I2" t="n">
-        <v>411378.8687039224</v>
+        <v>411378.8687039221</v>
       </c>
       <c r="J2" t="n">
-        <v>411378.8687039224</v>
+        <v>411378.8687039223</v>
       </c>
       <c r="K2" t="n">
-        <v>411378.8687039224</v>
+        <v>411378.8687039223</v>
       </c>
       <c r="L2" t="n">
         <v>411378.8687039223</v>
@@ -26349,13 +26349,13 @@
         <v>337288.7548397008</v>
       </c>
       <c r="N2" t="n">
-        <v>337288.7548397009</v>
+        <v>337288.7548397008</v>
       </c>
       <c r="O2" t="n">
         <v>337288.7548397007</v>
       </c>
       <c r="P2" t="n">
-        <v>337288.7548397009</v>
+        <v>337288.7548397008</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>23995.47709361179</v>
+        <v>23995.4770936118</v>
       </c>
       <c r="F4" t="n">
         <v>23995.47709361179</v>
@@ -26435,22 +26435,22 @@
         <v>23995.47709361178</v>
       </c>
       <c r="H4" t="n">
-        <v>23995.47709361178</v>
+        <v>23995.47709361179</v>
       </c>
       <c r="I4" t="n">
-        <v>98876.52826682446</v>
+        <v>98876.52826682445</v>
       </c>
       <c r="J4" t="n">
         <v>98876.52826682446</v>
       </c>
       <c r="K4" t="n">
-        <v>98876.52826682446</v>
+        <v>98876.52826682445</v>
       </c>
       <c r="L4" t="n">
-        <v>98876.52826682445</v>
+        <v>98876.52826682443</v>
       </c>
       <c r="M4" t="n">
-        <v>60917.31853126707</v>
+        <v>60917.31853126708</v>
       </c>
       <c r="N4" t="n">
         <v>60917.31853126702</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345275</v>
       </c>
       <c r="C6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345277</v>
       </c>
       <c r="D6" t="n">
-        <v>119673.9324337144</v>
+        <v>119713.6546345276</v>
       </c>
       <c r="E6" t="n">
-        <v>-273524.7845038323</v>
+        <v>-263576.3829478807</v>
       </c>
       <c r="F6" t="n">
-        <v>205397.9306467255</v>
+        <v>215346.3322026771</v>
       </c>
       <c r="G6" t="n">
-        <v>205397.9306467255</v>
+        <v>215346.3322026771</v>
       </c>
       <c r="H6" t="n">
-        <v>205397.9306467256</v>
+        <v>215346.3322026772</v>
       </c>
       <c r="I6" t="n">
-        <v>137809.1044730042</v>
+        <v>143059.65208661</v>
       </c>
       <c r="J6" t="n">
-        <v>255079.5392210727</v>
+        <v>260330.0868346786</v>
       </c>
       <c r="K6" t="n">
-        <v>255079.5392210727</v>
+        <v>260330.0868346787</v>
       </c>
       <c r="L6" t="n">
-        <v>255079.5392210726</v>
+        <v>260330.0868346787</v>
       </c>
       <c r="M6" t="n">
-        <v>229894.6016390513</v>
+        <v>237526.617198293</v>
       </c>
       <c r="N6" t="n">
-        <v>229894.6016390514</v>
+        <v>237526.617198293</v>
       </c>
       <c r="O6" t="n">
-        <v>229894.6016390512</v>
+        <v>237526.6171982929</v>
       </c>
       <c r="P6" t="n">
-        <v>229894.6016390514</v>
+        <v>237526.617198293</v>
       </c>
     </row>
   </sheetData>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>223.5533230558146</v>
+        <v>42.26229005002028</v>
       </c>
       <c r="L11" t="n">
         <v>89.7046148215822</v>
       </c>
       <c r="M11" t="n">
-        <v>131.802998969479</v>
+        <v>188.2884982896048</v>
       </c>
       <c r="N11" t="n">
-        <v>138.5961217924698</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="O11" t="n">
         <v>117.4024268293108</v>
       </c>
       <c r="P11" t="n">
-        <v>183.7049906334908</v>
+        <v>223.5533230558146</v>
       </c>
       <c r="Q11" t="n">
         <v>0.4163586239066603</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>122.0125433668854</v>
+        <v>40.35142989467195</v>
       </c>
       <c r="L12" t="n">
         <v>101.0479227803935</v>
@@ -35500,16 +35500,16 @@
         <v>137.4705518553105</v>
       </c>
       <c r="N12" t="n">
-        <v>223.5533230558146</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O12" t="n">
         <v>119.957156363289</v>
       </c>
       <c r="P12" t="n">
-        <v>76.747843850571</v>
+        <v>119.7328405976723</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.880470408757418</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>163.0990880341188</v>
       </c>
       <c r="K14" t="n">
-        <v>178.8084663746374</v>
+        <v>42.26229005002034</v>
       </c>
       <c r="L14" t="n">
         <v>89.70461482158225</v>
@@ -35667,7 +35667,7 @@
         <v>65.35075928054897</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4163586239066888</v>
+        <v>136.9625349485238</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>42.98499674710131</v>
       </c>
       <c r="K15" t="n">
         <v>40.35142989467198</v>
@@ -35743,7 +35743,7 @@
         <v>119.957156363289</v>
       </c>
       <c r="P15" t="n">
-        <v>119.7328405976723</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9577581446065</v>
@@ -35889,16 +35889,16 @@
         <v>42.26229005002034</v>
       </c>
       <c r="L17" t="n">
+        <v>212.6423538306379</v>
+      </c>
+      <c r="M17" t="n">
         <v>223.5533230558147</v>
       </c>
-      <c r="M17" t="n">
-        <v>131.8029989694791</v>
-      </c>
       <c r="N17" t="n">
-        <v>198.2417816904697</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="O17" t="n">
-        <v>223.5533230558147</v>
+        <v>117.4024268293108</v>
       </c>
       <c r="P17" t="n">
         <v>65.35075928054897</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>40.35142989467198</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="L18" t="n">
-        <v>101.0479227803936</v>
+        <v>170.9083141022012</v>
       </c>
       <c r="M18" t="n">
-        <v>183.4256466007027</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N18" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O18" t="n">
-        <v>223.5533230558147</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P18" t="n">
         <v>76.74784385057103</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>42.26229005002034</v>
+        <v>223.5533230558147</v>
       </c>
       <c r="L20" t="n">
         <v>89.70461482158225</v>
@@ -36138,10 +36138,10 @@
         <v>117.4024268293108</v>
       </c>
       <c r="P20" t="n">
-        <v>65.35075928054897</v>
+        <v>183.7049906334906</v>
       </c>
       <c r="Q20" t="n">
-        <v>136.9625349485238</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K21" t="n">
         <v>40.35142989467198</v>
       </c>
       <c r="L21" t="n">
-        <v>223.5533230558147</v>
+        <v>101.0479227803936</v>
       </c>
       <c r="M21" t="n">
-        <v>223.5533230558147</v>
+        <v>137.4705518553105</v>
       </c>
       <c r="N21" t="n">
         <v>155.6631750901101</v>
       </c>
       <c r="O21" t="n">
-        <v>164.4312693703141</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P21" t="n">
         <v>76.74784385057103</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8804704087574464</v>
+        <v>150.4317318466753</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L23" t="n">
-        <v>89.70461482158225</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M23" t="n">
         <v>581.3165324623117</v>
@@ -36375,10 +36375,10 @@
         <v>498.2026080920562</v>
       </c>
       <c r="P23" t="n">
-        <v>143.9468974089612</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.7313492838114</v>
+        <v>36.76536089589185</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>103.5110230450325</v>
       </c>
       <c r="K24" t="n">
-        <v>40.35142989467198</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L24" t="n">
         <v>471.8882680838527</v>
@@ -36448,16 +36448,16 @@
         <v>603.1756156053104</v>
       </c>
       <c r="N24" t="n">
-        <v>635.0055494336636</v>
+        <v>421.8347382886306</v>
       </c>
       <c r="O24" t="n">
-        <v>484.8398930117167</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P24" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8804704087574464</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>366.4077026211851</v>
+        <v>80.95799672168781</v>
       </c>
       <c r="L26" t="n">
         <v>507.3658293720327</v>
       </c>
       <c r="M26" t="n">
-        <v>132.7677385286956</v>
+        <v>581.3165324623117</v>
       </c>
       <c r="N26" t="n">
         <v>575.943046204454</v>
@@ -36676,22 +36676,22 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K27" t="n">
-        <v>40.35142989467198</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3976624105184</v>
+        <v>471.8882680838527</v>
       </c>
       <c r="M27" t="n">
         <v>603.1756156053104</v>
       </c>
       <c r="N27" t="n">
-        <v>635.0055494336636</v>
+        <v>556.5124753876877</v>
       </c>
       <c r="O27" t="n">
         <v>513.8194756400185</v>
       </c>
       <c r="P27" t="n">
-        <v>395.2106124905082</v>
+        <v>76.74784385057103</v>
       </c>
       <c r="Q27" t="n">
         <v>0.8804704087574464</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>366.4077026211851</v>
@@ -36840,19 +36840,19 @@
         <v>507.3658293720327</v>
       </c>
       <c r="M29" t="n">
-        <v>131.8029989694791</v>
+        <v>581.3165324623117</v>
       </c>
       <c r="N29" t="n">
-        <v>364.5927951037658</v>
+        <v>575.943046204454</v>
       </c>
       <c r="O29" t="n">
         <v>498.2026080920562</v>
       </c>
       <c r="P29" t="n">
-        <v>387.1494674520316</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.7313492838114</v>
+        <v>36.76536089589185</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>40.35142989467198</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L30" t="n">
-        <v>442.9086854555509</v>
+        <v>471.8882680838527</v>
       </c>
       <c r="M30" t="n">
         <v>603.1756156053104</v>
       </c>
       <c r="N30" t="n">
-        <v>635.0055494336636</v>
+        <v>525.3457613336629</v>
       </c>
       <c r="O30" t="n">
-        <v>513.8194756400185</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P30" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.8804704087574464</v>
+        <v>210.9577581446065</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>366.4077026211851</v>
       </c>
       <c r="L32" t="n">
-        <v>227.3022260412571</v>
+        <v>507.3658293720327</v>
       </c>
       <c r="M32" t="n">
         <v>581.3165324623117</v>
       </c>
       <c r="N32" t="n">
-        <v>575.943046204454</v>
+        <v>449.1929604423204</v>
       </c>
       <c r="O32" t="n">
-        <v>117.4024268293108</v>
+        <v>498.2026080920562</v>
       </c>
       <c r="P32" t="n">
-        <v>387.1494674520316</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.7313492838114</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>304.8166669072506</v>
+        <v>280.636933874074</v>
       </c>
       <c r="L33" t="n">
         <v>471.8882680838527</v>
       </c>
       <c r="M33" t="n">
-        <v>137.4705518553105</v>
+        <v>603.1756156053104</v>
       </c>
       <c r="N33" t="n">
-        <v>493.677482761901</v>
+        <v>155.6631750901101</v>
       </c>
       <c r="O33" t="n">
         <v>513.8194756400185</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L35" t="n">
-        <v>89.70461482158225</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M35" t="n">
         <v>131.8029989694791</v>
@@ -37320,13 +37320,13 @@
         <v>138.5961217924699</v>
       </c>
       <c r="O35" t="n">
-        <v>256.6796612277483</v>
+        <v>440.99726891847</v>
       </c>
       <c r="P35" t="n">
-        <v>387.1494674520316</v>
+        <v>226.953284358446</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.7313492838114</v>
+        <v>0.4163586239066888</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>304.8166669072506</v>
       </c>
       <c r="L36" t="n">
-        <v>101.0479227803936</v>
+        <v>440.99726891847</v>
       </c>
       <c r="M36" t="n">
         <v>137.4705518553105</v>
@@ -37399,13 +37399,13 @@
         <v>155.6631750901101</v>
       </c>
       <c r="O36" t="n">
-        <v>337.4932938892148</v>
+        <v>119.957156363289</v>
       </c>
       <c r="P36" t="n">
         <v>395.2106124905082</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9577581446065</v>
+        <v>192.0555725774882</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>366.4077026211851</v>
       </c>
       <c r="L38" t="n">
-        <v>439.5007059622474</v>
+        <v>440.9972689184697</v>
       </c>
       <c r="M38" t="n">
         <v>131.8029989694791</v>
       </c>
       <c r="N38" t="n">
-        <v>138.5961217924699</v>
+        <v>440.9972689184697</v>
       </c>
       <c r="O38" t="n">
-        <v>440.9972689184697</v>
+        <v>300.1986468703664</v>
       </c>
       <c r="P38" t="n">
         <v>65.35075928054897</v>
@@ -37627,7 +37627,7 @@
         <v>304.8166669072506</v>
       </c>
       <c r="L39" t="n">
-        <v>316.0067163910745</v>
+        <v>207.6212354869866</v>
       </c>
       <c r="M39" t="n">
         <v>137.4705518553105</v>
@@ -37639,10 +37639,10 @@
         <v>440.9972689184697</v>
       </c>
       <c r="P39" t="n">
-        <v>76.74784385057103</v>
+        <v>395.2106124905082</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9577581446065</v>
+        <v>0.8804704087574464</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>76.91056467913107</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L41" t="n">
-        <v>440.9972689184697</v>
+        <v>89.70461482158225</v>
       </c>
       <c r="M41" t="n">
-        <v>440.9972689184697</v>
+        <v>131.8029989694791</v>
       </c>
       <c r="N41" t="n">
-        <v>440.9972689184697</v>
+        <v>138.5961217924699</v>
       </c>
       <c r="O41" t="n">
-        <v>117.4024268293108</v>
+        <v>419.7787492618661</v>
       </c>
       <c r="P41" t="n">
-        <v>65.35075928054897</v>
+        <v>387.1494674520316</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4163586239066888</v>
+        <v>212.7313492838114</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>103.5110230450325</v>
       </c>
       <c r="K42" t="n">
-        <v>251.9547621815935</v>
+        <v>304.8166669072506</v>
       </c>
       <c r="L42" t="n">
         <v>101.0479227803936</v>
@@ -37870,16 +37870,16 @@
         <v>440.9972689184697</v>
       </c>
       <c r="N42" t="n">
+        <v>155.6631750901101</v>
+      </c>
+      <c r="O42" t="n">
         <v>440.9972689184697</v>
-      </c>
-      <c r="O42" t="n">
-        <v>119.957156363289</v>
       </c>
       <c r="P42" t="n">
         <v>76.74784385057103</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9577581446065</v>
+        <v>122.3898346921285</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>163.0990880341188</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>42.26229005002034</v>
+        <v>366.4077026211851</v>
       </c>
       <c r="L44" t="n">
         <v>440.9972689184697</v>
@@ -38028,16 +38028,16 @@
         <v>131.8029989694791</v>
       </c>
       <c r="N44" t="n">
+        <v>138.5961217924699</v>
+      </c>
+      <c r="O44" t="n">
         <v>440.9972689184697</v>
       </c>
-      <c r="O44" t="n">
-        <v>117.4024268293108</v>
-      </c>
       <c r="P44" t="n">
-        <v>196.8783131987456</v>
+        <v>65.35075928054897</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.7313492838114</v>
+        <v>162.0188837018031</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>103.5110230450325</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>304.8166669072506</v>
@@ -38107,10 +38107,10 @@
         <v>137.4705518553105</v>
       </c>
       <c r="N45" t="n">
-        <v>155.6631750901101</v>
+        <v>155.6702231058865</v>
       </c>
       <c r="O45" t="n">
-        <v>337.4932938892136</v>
+        <v>440.9972689184697</v>
       </c>
       <c r="P45" t="n">
         <v>395.2106124905082</v>
